--- a/biology/Mycologie/Imperator_luteocupreus/Imperator_luteocupreus.xlsx
+++ b/biology/Mycologie/Imperator_luteocupreus/Imperator_luteocupreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet cuivré, Bolet jaune cuivré
-Imperator luteocupreus, le Bolet cuivré, anciennement Boletus luteocupreus, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Imperator dans la famille des Boletaceae. C'est une espèce quasi menacée[1]. Il est caractérisé par son chapeau cuivré, ses pores rouge sang dès le début et son bleuissement intense à la coupe ou à la pression. 
+Imperator luteocupreus, le Bolet cuivré, anciennement Boletus luteocupreus, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Imperator dans la famille des Boletaceae. C'est une espèce quasi menacée. Il est caractérisé par son chapeau cuivré, ses pores rouge sang dès le début et son bleuissement intense à la coupe ou à la pression. 
 </t>
         </is>
       </c>
@@ -512,15 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imperator luteocupreus (Bertéa &amp; Estadès) Assyov, Bellanger, Bertéa, Courtec., Koller, Loizides, G.Marques, J.A.Muñoz, Oppicelli, D.Puddu, F.Rich. &amp; P.-A.Moreau[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luteocupreus Bertéa &amp; Estadès[2].
-Synonymes
-Imperator luteocupreus a pour synonyme[2] :
-Boletus luteocupreus Bertéa &amp; Estadès
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet cuivré[3], Bolet jaune cuivré[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imperator luteocupreus (Bertéa &amp; Estadès) Assyov, Bellanger, Bertéa, Courtec., Koller, Loizides, G.Marques, J.A.Muñoz, Oppicelli, D.Puddu, F.Rich. &amp; P.-A.Moreau. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luteocupreus Bertéa &amp; Estadès.
 </t>
         </is>
       </c>
@@ -546,18 +555,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Imperator luteocupreus a pour synonyme :
+Boletus luteocupreus Bertéa &amp; Estadès</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet cuivré, Bolet jaune cuivré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques d'Imperator luteocupreus et jaune sont les suivantes : 
 Son chapeau mesure 5 à 20 cm, il est jaune orangé, d'abord jaune plus au moins orangé mais vite rouge-rose cuivré à rouge orangé, en général brillant, avec une surface plus au moins lisse, dans tous les cas beaucoup moins cabossée que celle de I.rhodopurpureus.  
 Ses pores sont rouges carminé intense, fortement bleuissants. 
 Son stipe mesure 5 à 10 cm x 1,5 à 6 cm, il jaune vif à base typiquement plus au moins rouge-pourpre, avec un réseau rouge sang bien développé. 
-Sa chair est jaune, pourpre dans la base du pied, fortement bleuissante à la coupe ou à la pression, bleu marine puis noire. Comme tous les bolets du genre Imperator, le Bolet cuivré se salit de bleu très facilement à la manipulation ou même en entrant en contact avec d'autres éléments sur son lieu de pousse[5],[4],[6].
-Caractéristiques microscopiques
-Spores 10,5-15 x 4,5-6 µm[4]
+Sa chair est jaune, pourpre dans la base du pied, fortement bleuissante à la coupe ou à la pression, bleu marine puis noire. Comme tous les bolets du genre Imperator, le Bolet cuivré se salit de bleu très facilement à la manipulation ou même en entrant en contact avec d'autres éléments sur son lieu de pousse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_luteocupreus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spores 10,5-15 x 4,5-6 µm
 </t>
         </is>
       </c>
